--- a/TestCasesinExcell/MHT/mht_adavance.xlsx
+++ b/TestCasesinExcell/MHT/mht_adavance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\TestCasesinExcell\MHT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41607CE4-C500-4B00-8DFE-E9BD831C1F53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EB2E09-3285-4B58-9939-890A45085593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{EF2B5DE7-9414-470C-AB54-F08A2B747CDE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="146">
   <si>
     <t>Description</t>
   </si>
@@ -69,397 +69,400 @@
     <t>Not Applicable</t>
   </si>
   <si>
+    <t>Click on Customer</t>
+  </si>
+  <si>
+    <t>//p[contains(text(), 'AGENT')]</t>
+  </si>
+  <si>
+    <t>//div[text()='Agent Login']</t>
+  </si>
+  <si>
+    <t>Validate agent login</t>
+  </si>
+  <si>
+    <t>Agent Login</t>
+  </si>
+  <si>
+    <t>Enter Agent ID</t>
+  </si>
+  <si>
+    <t>//input[@name='userId']</t>
+  </si>
+  <si>
+    <t>AG002</t>
+  </si>
+  <si>
+    <t>//input[@name='agentPassword']</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Machint@123</t>
+  </si>
+  <si>
+    <t>//button[text()='Login Now']</t>
+  </si>
+  <si>
+    <t>Click on login now</t>
+  </si>
+  <si>
+    <t>Validate Policies</t>
+  </si>
+  <si>
+    <t>//div[text()='Policies']</t>
+  </si>
+  <si>
+    <t>Policies</t>
+  </si>
+  <si>
+    <t>Scenario 2</t>
+  </si>
+  <si>
+    <t>Verify agent is able to fill the advance plan</t>
+  </si>
+  <si>
+    <t>Verify agnet is able login into the application</t>
+  </si>
+  <si>
+    <t>Click on buy now</t>
+  </si>
+  <si>
+    <t>(//button[text()='Buy Now'])[2]</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Nationality </t>
+  </si>
+  <si>
+    <t>Validate Personal Details</t>
+  </si>
+  <si>
+    <t>//h3[text()='Personal Details']</t>
+  </si>
+  <si>
+    <t>Personal Details</t>
+  </si>
+  <si>
+    <t>Validate Advance Plan</t>
+  </si>
+  <si>
+    <t>Advance Plan</t>
+  </si>
+  <si>
+    <t>//input[@name='passport']</t>
+  </si>
+  <si>
+    <t>Enter passport</t>
+  </si>
+  <si>
+    <t>//select[@name='ccode']</t>
+  </si>
+  <si>
+    <t>validate code</t>
+  </si>
+  <si>
+    <t>//select[@name='nationality']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select code </t>
+  </si>
+  <si>
+    <t>+60</t>
+  </si>
+  <si>
+    <t>+91</t>
+  </si>
+  <si>
+    <t>//input[@name='phNum']</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>//input[@name='nationalId']</t>
+  </si>
+  <si>
+    <t>Enter Identity Card Number</t>
+  </si>
+  <si>
+    <t>1234567890012</t>
+  </si>
+  <si>
+    <t>//input[@name='firstNm']</t>
+  </si>
+  <si>
+    <t>Enter full name</t>
+  </si>
+  <si>
+    <t>Durga</t>
+  </si>
+  <si>
+    <t>//input[@name='lastNm']</t>
+  </si>
+  <si>
+    <t>Enter last name</t>
+  </si>
+  <si>
+    <t>Ponnana</t>
+  </si>
+  <si>
+    <t>Enter dob</t>
+  </si>
+  <si>
+    <t>//input[@name='dob']</t>
+  </si>
+  <si>
+    <t>16-09-1998</t>
+  </si>
+  <si>
+    <t>//input[@name='email']</t>
+  </si>
+  <si>
+    <t>Enter email address</t>
+  </si>
+  <si>
+    <t>durga.ponnana@machint.com</t>
+  </si>
+  <si>
+    <t>//select[@name='gender']</t>
+  </si>
+  <si>
+    <t>Select gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>//input[@name='address']</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>Hyd</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Click on policies</t>
+  </si>
+  <si>
+    <t>(//div[text()='Advance Plan'])[2]</t>
+  </si>
+  <si>
+    <t>(//select//option[text()='+60'])[1]</t>
+  </si>
+  <si>
+    <t>Upload Visa</t>
+  </si>
+  <si>
+    <t>//input[@id='visacontained-file']</t>
+  </si>
+  <si>
+    <t>C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\documents\aadhar card.jpg</t>
+  </si>
+  <si>
+    <t>Upload e-ticket</t>
+  </si>
+  <si>
+    <t>//input[@id='eticketcontained-file']</t>
+  </si>
+  <si>
+    <t>C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\documents\pan.jpg</t>
+  </si>
+  <si>
+    <t>//div[text()='Beneficiary Details']</t>
+  </si>
+  <si>
+    <t>Validate Beneficiary Details</t>
+  </si>
+  <si>
+    <t>Beneficiary Details</t>
+  </si>
+  <si>
+    <t>//input[@name='nomineeNm']</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>//select[@name='nccode']</t>
+  </si>
+  <si>
+    <t>//input[@name='nomineePh']</t>
+  </si>
+  <si>
+    <t>Enter mobile number</t>
+  </si>
+  <si>
+    <t>9087908789</t>
+  </si>
+  <si>
+    <t>Validate Travel Details</t>
+  </si>
+  <si>
+    <t>Travel Details</t>
+  </si>
+  <si>
+    <t>//div[text()='Travel Details']</t>
+  </si>
+  <si>
+    <t>//input[@name='polStartDt']</t>
+  </si>
+  <si>
+    <t>Enter travel date form</t>
+  </si>
+  <si>
+    <t>26-01-2023</t>
+  </si>
+  <si>
+    <t>Enter travel date to</t>
+  </si>
+  <si>
+    <t>Click on terms and conditions</t>
+  </si>
+  <si>
+    <t>Click on submit</t>
+  </si>
+  <si>
+    <t>//button[text()='Submit']</t>
+  </si>
+  <si>
+    <t>Validate Personal Details Preview</t>
+  </si>
+  <si>
+    <t>//h3[text()='Personal Details Preview']</t>
+  </si>
+  <si>
+    <t>Personal Details Preview</t>
+  </si>
+  <si>
+    <t>//button[text()='Proceed To Pay']</t>
+  </si>
+  <si>
+    <t>Click on proceed to pay</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>//input[@name='polExpiryDt']</t>
+  </si>
+  <si>
+    <t>(//label[contains(@class,'MuiFormControlLabel-root')])[3]</t>
+  </si>
+  <si>
+    <t>28-01-2023</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Click on cardnumber</t>
+  </si>
+  <si>
+    <t>//input[@name='cardnumber']</t>
+  </si>
+  <si>
+    <t>(//img[@src='/MOLPay/images/icons/sel.gif'])[2]</t>
+  </si>
+  <si>
+    <t>Enter name</t>
+  </si>
+  <si>
+    <t>//input[@name='cardholder']</t>
+  </si>
+  <si>
+    <t>Enter email</t>
+  </si>
+  <si>
+    <t>//input[@name='mobile']</t>
+  </si>
+  <si>
+    <t>7847674556</t>
+  </si>
+  <si>
+    <t>Click on Bank Country</t>
+  </si>
+  <si>
+    <t>Enter bank name</t>
+  </si>
+  <si>
+    <t>//input[@name='bank_name']</t>
+  </si>
+  <si>
+    <t>hdfc</t>
+  </si>
+  <si>
+    <t>Click on payonline</t>
+  </si>
+  <si>
+    <t>//button[text()='Pay Online']</t>
+  </si>
+  <si>
+    <t>(//input[@name='country_opt'])[1]</t>
+  </si>
+  <si>
+    <t>Click on otp</t>
+  </si>
+  <si>
+    <t>//button[text()='Request OTP']</t>
+  </si>
+  <si>
+    <t>//div[@class='otp']</t>
+  </si>
+  <si>
+    <t>gettheleadid otp</t>
+  </si>
+  <si>
+    <t>7897897878</t>
+  </si>
+  <si>
+    <t>//input[@type='checkbox']</t>
+  </si>
+  <si>
+    <t>Settheleadid otp</t>
+  </si>
+  <si>
+    <t>//input[@name='otp-input']</t>
+  </si>
+  <si>
+    <t>Click on paynow</t>
+  </si>
+  <si>
+    <t>//button[text()='Pay Now']</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>//button[text()='OK']</t>
+  </si>
+  <si>
+    <t>Click on ok</t>
+  </si>
+  <si>
+    <t>A12345455</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Click on Customer</t>
-  </si>
-  <si>
-    <t>//p[contains(text(), 'AGENT')]</t>
-  </si>
-  <si>
-    <t>//div[text()='Agent Login']</t>
-  </si>
-  <si>
-    <t>Validate agent login</t>
-  </si>
-  <si>
-    <t>Agent Login</t>
-  </si>
-  <si>
-    <t>Enter Agent ID</t>
-  </si>
-  <si>
-    <t>//input[@name='userId']</t>
-  </si>
-  <si>
-    <t>AG002</t>
-  </si>
-  <si>
-    <t>//input[@name='agentPassword']</t>
-  </si>
-  <si>
-    <t>Enter password</t>
-  </si>
-  <si>
-    <t>Machint@123</t>
-  </si>
-  <si>
-    <t>//button[text()='Login Now']</t>
-  </si>
-  <si>
-    <t>Click on login now</t>
-  </si>
-  <si>
-    <t>Validate Policies</t>
-  </si>
-  <si>
-    <t>//div[text()='Policies']</t>
-  </si>
-  <si>
-    <t>Policies</t>
-  </si>
-  <si>
-    <t>Scenario 2</t>
-  </si>
-  <si>
-    <t>Verify agent is able to fill the advance plan</t>
-  </si>
-  <si>
-    <t>Verify agnet is able login into the application</t>
-  </si>
-  <si>
-    <t>Click on buy now</t>
-  </si>
-  <si>
-    <t>(//button[text()='Buy Now'])[2]</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select Nationality </t>
-  </si>
-  <si>
-    <t>Validate Personal Details</t>
-  </si>
-  <si>
-    <t>//h3[text()='Personal Details']</t>
-  </si>
-  <si>
-    <t>Personal Details</t>
-  </si>
-  <si>
-    <t>Validate Advance Plan</t>
-  </si>
-  <si>
-    <t>Advance Plan</t>
-  </si>
-  <si>
-    <t>//input[@name='passport']</t>
-  </si>
-  <si>
-    <t>Enter passport</t>
-  </si>
-  <si>
-    <t>//select[@name='ccode']</t>
-  </si>
-  <si>
-    <t>validate code</t>
-  </si>
-  <si>
-    <t>//select[@name='nationality']</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select code </t>
-  </si>
-  <si>
-    <t>+60</t>
-  </si>
-  <si>
-    <t>+91</t>
-  </si>
-  <si>
-    <t>//input[@name='phNum']</t>
-  </si>
-  <si>
-    <t>Enter phone number</t>
-  </si>
-  <si>
-    <t>//input[@name='nationalId']</t>
-  </si>
-  <si>
-    <t>Enter Identity Card Number</t>
-  </si>
-  <si>
-    <t>1234567890012</t>
-  </si>
-  <si>
-    <t>//input[@name='firstNm']</t>
-  </si>
-  <si>
-    <t>Enter full name</t>
-  </si>
-  <si>
-    <t>Durga</t>
-  </si>
-  <si>
-    <t>//input[@name='lastNm']</t>
-  </si>
-  <si>
-    <t>Enter last name</t>
-  </si>
-  <si>
-    <t>Ponnana</t>
-  </si>
-  <si>
-    <t>Enter dob</t>
-  </si>
-  <si>
-    <t>//input[@name='dob']</t>
-  </si>
-  <si>
-    <t>16-09-1998</t>
-  </si>
-  <si>
-    <t>//input[@name='email']</t>
-  </si>
-  <si>
-    <t>Enter email address</t>
-  </si>
-  <si>
-    <t>durga.ponnana@machint.com</t>
-  </si>
-  <si>
-    <t>//select[@name='gender']</t>
-  </si>
-  <si>
-    <t>Select gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>//input[@name='address']</t>
-  </si>
-  <si>
-    <t>Enter address</t>
-  </si>
-  <si>
-    <t>Hyd</t>
-  </si>
-  <si>
-    <t>End</t>
-  </si>
-  <si>
-    <t>Click on policies</t>
-  </si>
-  <si>
-    <t>(//div[text()='Advance Plan'])[2]</t>
-  </si>
-  <si>
-    <t>(//select//option[text()='+60'])[1]</t>
-  </si>
-  <si>
-    <t>Upload Visa</t>
-  </si>
-  <si>
-    <t>//input[@id='visacontained-file']</t>
-  </si>
-  <si>
-    <t>C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\documents\aadhar card.jpg</t>
-  </si>
-  <si>
-    <t>Upload e-ticket</t>
-  </si>
-  <si>
-    <t>//input[@id='eticketcontained-file']</t>
-  </si>
-  <si>
-    <t>C:\Users\PC.DESKTOP-Q8L0TS6\Documents\GitHub\MultipleBroswers\documents\pan.jpg</t>
-  </si>
-  <si>
-    <t>//div[text()='Beneficiary Details']</t>
-  </si>
-  <si>
-    <t>Validate Beneficiary Details</t>
-  </si>
-  <si>
-    <t>Beneficiary Details</t>
-  </si>
-  <si>
-    <t>//input[@name='nomineeNm']</t>
-  </si>
-  <si>
-    <t>Raj</t>
-  </si>
-  <si>
-    <t>//select[@name='nccode']</t>
-  </si>
-  <si>
-    <t>//input[@name='nomineePh']</t>
-  </si>
-  <si>
-    <t>Enter mobile number</t>
-  </si>
-  <si>
-    <t>9087908789</t>
-  </si>
-  <si>
-    <t>Validate Travel Details</t>
-  </si>
-  <si>
-    <t>Travel Details</t>
-  </si>
-  <si>
-    <t>//div[text()='Travel Details']</t>
-  </si>
-  <si>
-    <t>//input[@name='polStartDt']</t>
-  </si>
-  <si>
-    <t>Enter travel date form</t>
-  </si>
-  <si>
-    <t>26-01-2023</t>
-  </si>
-  <si>
-    <t>Enter travel date to</t>
-  </si>
-  <si>
-    <t>Click on terms and conditions</t>
-  </si>
-  <si>
-    <t>Click on submit</t>
-  </si>
-  <si>
-    <t>//button[text()='Submit']</t>
-  </si>
-  <si>
-    <t>Validate Personal Details Preview</t>
-  </si>
-  <si>
-    <t>//h3[text()='Personal Details Preview']</t>
-  </si>
-  <si>
-    <t>Personal Details Preview</t>
-  </si>
-  <si>
-    <t>//button[text()='Proceed To Pay']</t>
-  </si>
-  <si>
-    <t>Click on proceed to pay</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>wait</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>//input[@name='polExpiryDt']</t>
-  </si>
-  <si>
-    <t>(//label[contains(@class,'MuiFormControlLabel-root')])[3]</t>
-  </si>
-  <si>
-    <t>28-01-2023</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Click on cardnumber</t>
-  </si>
-  <si>
-    <t>//input[@name='cardnumber']</t>
-  </si>
-  <si>
-    <t>(//img[@src='/MOLPay/images/icons/sel.gif'])[2]</t>
-  </si>
-  <si>
-    <t>Enter name</t>
-  </si>
-  <si>
-    <t>//input[@name='cardholder']</t>
-  </si>
-  <si>
-    <t>Enter email</t>
-  </si>
-  <si>
-    <t>//input[@name='mobile']</t>
-  </si>
-  <si>
-    <t>7847674556</t>
-  </si>
-  <si>
-    <t>Click on Bank Country</t>
-  </si>
-  <si>
-    <t>Enter bank name</t>
-  </si>
-  <si>
-    <t>//input[@name='bank_name']</t>
-  </si>
-  <si>
-    <t>hdfc</t>
-  </si>
-  <si>
-    <t>Click on payonline</t>
-  </si>
-  <si>
-    <t>//button[text()='Pay Online']</t>
-  </si>
-  <si>
-    <t>(//input[@name='country_opt'])[1]</t>
-  </si>
-  <si>
-    <t>Click on otp</t>
-  </si>
-  <si>
-    <t>//button[text()='Request OTP']</t>
-  </si>
-  <si>
-    <t>//div[@class='otp']</t>
-  </si>
-  <si>
-    <t>gettheleadid otp</t>
-  </si>
-  <si>
-    <t>7897897878</t>
-  </si>
-  <si>
-    <t>//input[@type='checkbox']</t>
-  </si>
-  <si>
-    <t>Settheleadid otp</t>
-  </si>
-  <si>
-    <t>//input[@name='otp-input']</t>
-  </si>
-  <si>
-    <t>Click on paynow</t>
-  </si>
-  <si>
-    <t>//button[text()='Pay Now']</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>A12345689</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
-  </si>
-  <si>
-    <t>Locator is not valid</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="237">
+  <fills count="123">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,301 +523,112 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
         <fgColor indexed="50"/>
       </patternFill>
     </fill>
@@ -831,386 +645,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="50"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="50"/>
       </patternFill>
     </fill>
     <fill>
@@ -1707,7 +1141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1733,64 +1167,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="51" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="53" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="55" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="57" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="59" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="54" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="58" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="62" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="64" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="66" borderId="0" xfId="0" applyFill="true"/>
@@ -1822,63 +1227,6 @@
     <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="194" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="196" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="198" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="200" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="202" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="204" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="206" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="208" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="210" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="212" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="214" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="216" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="218" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="220" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="222" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="224" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="226" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="228" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="230" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="232" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="234" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="236" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2194,9 +1542,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A94BA6C-A192-4496-824E-3EBE7E84C5C7}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2247,7 +1595,7 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="102">
+      <c r="E2" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -2262,8 +1610,8 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="103">
-        <v>14</v>
+      <c r="E3" t="s" s="16">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -2271,12 +1619,12 @@
         <v>10</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="104">
+      <c r="E4" t="s" s="17">
         <v>10</v>
       </c>
     </row>
@@ -2291,887 +1639,902 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s" s="105">
-        <v>14</v>
+      <c r="E5" t="s" s="18">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="106">
-        <v>14</v>
+      <c r="E6" t="s" s="19">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s" s="107">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="E7" t="s" s="20">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s" s="108">
-        <v>14</v>
+      <c r="E8" t="s" s="21">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s" s="109">
-        <v>14</v>
+      <c r="E9" t="s" s="22">
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="110">
-        <v>14</v>
+      <c r="E10" t="s" s="23">
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
       <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s" s="111">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="E11" t="s" s="24">
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s" s="112">
-        <v>31</v>
+      <c r="E12" t="s" s="25">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s" s="113">
-        <v>14</v>
+      <c r="E13" t="s" s="26">
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s" s="114">
-        <v>14</v>
+      <c r="E14" t="s" s="27">
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s" s="115">
-        <v>14</v>
+      <c r="E15" t="s" s="28">
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
       </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
       <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s" s="116">
-        <v>14</v>
+        <v>41</v>
+      </c>
+      <c r="E16" t="s" s="29">
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s" s="117">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="E17" t="s" s="30">
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s" s="118">
-        <v>14</v>
+      <c r="E18" t="s" s="31">
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s" s="119">
-        <v>14</v>
+      <c r="E19" t="s" s="32">
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s" s="120">
-        <v>14</v>
+        <v>48</v>
+      </c>
+      <c r="E20" t="s" s="33">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s" s="121">
-        <v>14</v>
+      <c r="E21" t="s" s="34">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" t="s" s="122">
-        <v>14</v>
+      <c r="E22" t="s" s="35">
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s" s="123">
-        <v>14</v>
+      <c r="E23" t="s" s="36">
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>57</v>
       </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s" s="124">
-        <v>14</v>
+      <c r="E24" t="s" s="37">
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="B25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s" s="125">
-        <v>14</v>
+      <c r="E25" t="s" s="38">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>64</v>
-      </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s" s="126">
-        <v>14</v>
+      <c r="E26" t="s" s="39">
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s" s="127">
-        <v>14</v>
+      <c r="E27" t="s" s="40">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s" s="128">
-        <v>14</v>
+      <c r="E28" t="s" s="41">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s" s="129">
-        <v>14</v>
+      <c r="E29" t="s" s="42">
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>79</v>
       </c>
-      <c r="C30" t="s">
-        <v>80</v>
-      </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s" s="130">
-        <v>14</v>
+      <c r="E30" t="s" s="43">
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
         <v>81</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s" s="131">
-        <v>14</v>
+      <c r="E31" t="s" s="44">
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
         <v>85</v>
       </c>
-      <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>86</v>
-      </c>
       <c r="D32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" t="s" s="132">
-        <v>14</v>
+        <v>85</v>
+      </c>
+      <c r="E32" t="s" s="45">
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>88</v>
-      </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" t="s" s="133">
-        <v>14</v>
+      <c r="E33" t="s" s="46">
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>49</v>
-      </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" t="s" s="134">
-        <v>14</v>
+      <c r="E34" t="s" s="47">
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>92</v>
-      </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" t="s" s="135">
-        <v>14</v>
+      <c r="E35" t="s" s="48">
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" t="s" s="136">
-        <v>14</v>
+      <c r="E36" t="s" s="49">
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
         <v>93</v>
       </c>
-      <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
       <c r="D37" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s" s="137">
-        <v>14</v>
+        <v>93</v>
+      </c>
+      <c r="E37" t="s" s="50">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B38" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="E38" t="s" s="138">
-        <v>14</v>
+      <c r="E38" t="s" s="51">
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" t="s" s="139">
-        <v>14</v>
+      <c r="E39" t="s" s="52">
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
-      <c r="E40" t="s" s="140">
-        <v>14</v>
+      <c r="E40" t="s" s="53">
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
         <v>101</v>
       </c>
-      <c r="B41" t="s">
-        <v>102</v>
-      </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="E41" t="s" s="141">
-        <v>14</v>
+      <c r="E41" t="s" s="54">
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
         <v>103</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>104</v>
       </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
       <c r="D42" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" t="s" s="142">
-        <v>14</v>
+        <v>104</v>
+      </c>
+      <c r="E42" t="s" s="55">
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="E43" t="s" s="143">
-        <v>14</v>
+      <c r="E43" t="s" s="56">
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" t="s">
         <v>108</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="E44" t="s" s="144">
-        <v>14</v>
+      <c r="E44" t="s" s="57">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
         <v>116</v>
       </c>
-      <c r="B45" t="s">
-        <v>117</v>
-      </c>
       <c r="D45" t="s">
         <v>13</v>
       </c>
-      <c r="E45" t="s" s="145">
-        <v>14</v>
+      <c r="E45" t="s" s="58">
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
-      <c r="E46" t="s" s="146">
-        <v>14</v>
+      <c r="E46" t="s" s="59">
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
         <v>119</v>
       </c>
-      <c r="B47" t="s">
-        <v>120</v>
-      </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
-      <c r="E47" t="s" s="147">
-        <v>14</v>
+      <c r="E47" t="s" s="60">
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" t="s" s="148">
-        <v>14</v>
+      <c r="E48" t="s" s="61">
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="E49" t="s" s="149">
-        <v>14</v>
+      <c r="E49" t="s" s="62">
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="E50" t="s" s="150">
-        <v>14</v>
+      <c r="E50" t="s" s="63">
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>126</v>
       </c>
-      <c r="C51" t="s">
-        <v>127</v>
-      </c>
       <c r="D51" t="s">
         <v>13</v>
       </c>
-      <c r="E51" t="s" s="151">
-        <v>14</v>
+      <c r="E51" t="s" s="64">
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
       </c>
-      <c r="E52" t="s" s="152">
-        <v>14</v>
+      <c r="E52" t="s" s="65">
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" t="s">
         <v>128</v>
       </c>
-      <c r="B53" t="s">
-        <v>129</v>
-      </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
-      <c r="E53" t="s" s="153">
-        <v>14</v>
+      <c r="E53" t="s" s="66">
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
-      <c r="E54" t="s" s="154">
-        <v>14</v>
+      <c r="E54" t="s" s="67">
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" t="s">
         <v>131</v>
       </c>
-      <c r="B55" t="s">
-        <v>132</v>
-      </c>
       <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="E55" t="s" s="155">
-        <v>14</v>
+      <c r="E55" t="s" s="68">
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
       </c>
-      <c r="E56" t="s" s="156">
-        <v>14</v>
+      <c r="E56" t="s" s="69">
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
         <v>137</v>
       </c>
-      <c r="B57" t="s">
-        <v>138</v>
-      </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="E57" t="s" s="157">
-        <v>14</v>
+      <c r="E57" t="s" s="70">
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" t="s">
         <v>139</v>
       </c>
-      <c r="B58" t="s">
-        <v>140</v>
-      </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="E58" t="s" s="158">
-        <v>14</v>
+      <c r="E58" t="s" s="71">
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="B59" t="s">
-        <v>109</v>
-      </c>
       <c r="C59" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
       </c>
-      <c r="E59" t="s" s="159">
-        <v>14</v>
+      <c r="E59" t="s" s="72">
+        <v>145</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>74</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="B60" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="12"/>
       <c r="D60" t="s">
         <v>13</v>
       </c>
-      <c r="E60" t="s" s="160">
-        <v>74</v>
+      <c r="E60" t="s" s="73">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s" s="74">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/TestCasesinExcell/MHT/mht_adavance.xlsx
+++ b/TestCasesinExcell/MHT/mht_adavance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="147">
   <si>
     <t>Description</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Locator is not valid</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="123">
+  <fills count="211">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1125,6 +1128,446 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="50"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
       </patternFill>
     </fill>
   </fills>
@@ -1141,7 +1584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1227,6 +1670,50 @@
     <xf numFmtId="0" fontId="0" fillId="118" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="120" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="122" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="124" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="126" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="128" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="130" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="132" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="134" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="136" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="138" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="140" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="142" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="144" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="146" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="148" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="150" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="154" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="158" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="160" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="162" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="164" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="166" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="168" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="170" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="172" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="174" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="176" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="178" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="180" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="182" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="184" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="186" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="188" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="190" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="192" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="194" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="196" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="198" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="200" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="202" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="204" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="206" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="208" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="210" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1595,7 +2082,7 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s" s="15">
+      <c r="E2" t="s" s="97">
         <v>7</v>
       </c>
     </row>
@@ -1610,7 +2097,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s" s="16">
+      <c r="E3" t="s" s="98">
         <v>145</v>
       </c>
     </row>
@@ -1624,7 +2111,7 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s" s="17">
+      <c r="E4" t="s" s="99">
         <v>10</v>
       </c>
     </row>
@@ -1639,7 +2126,7 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s" s="18">
+      <c r="E5" t="s" s="100">
         <v>145</v>
       </c>
     </row>
@@ -1654,7 +2141,7 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s" s="19">
+      <c r="E6" t="s" s="101">
         <v>145</v>
       </c>
     </row>
@@ -1671,7 +2158,7 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" t="s" s="20">
+      <c r="E7" t="s" s="102">
         <v>145</v>
       </c>
     </row>
@@ -1688,7 +2175,7 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s" s="21">
+      <c r="E8" t="s" s="103">
         <v>145</v>
       </c>
     </row>
@@ -1705,7 +2192,7 @@
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" t="s" s="22">
+      <c r="E9" t="s" s="104">
         <v>145</v>
       </c>
     </row>
@@ -1719,7 +2206,7 @@
       <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="23">
+      <c r="E10" t="s" s="105">
         <v>145</v>
       </c>
     </row>
@@ -1736,7 +2223,7 @@
       <c r="D11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s" s="24">
+      <c r="E11" t="s" s="106">
         <v>145</v>
       </c>
     </row>
@@ -1750,7 +2237,7 @@
       <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s" s="25">
+      <c r="E12" t="s" s="107">
         <v>30</v>
       </c>
     </row>
@@ -1764,7 +2251,7 @@
       <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" t="s" s="26">
+      <c r="E13" t="s" s="108">
         <v>145</v>
       </c>
     </row>
@@ -1778,7 +2265,7 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" t="s" s="27">
+      <c r="E14" t="s" s="109">
         <v>145</v>
       </c>
     </row>
@@ -1795,7 +2282,7 @@
       <c r="D15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s" s="28">
+      <c r="E15" t="s" s="110">
         <v>145</v>
       </c>
     </row>
@@ -1812,7 +2299,7 @@
       <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s" s="29">
+      <c r="E16" t="s" s="111">
         <v>145</v>
       </c>
     </row>
@@ -1829,7 +2316,7 @@
       <c r="D17" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s" s="30">
+      <c r="E17" t="s" s="112">
         <v>145</v>
       </c>
     </row>
@@ -1846,7 +2333,7 @@
       <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="E18" t="s" s="31">
+      <c r="E18" t="s" s="113">
         <v>145</v>
       </c>
     </row>
@@ -1863,7 +2350,7 @@
       <c r="D19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" t="s" s="32">
+      <c r="E19" t="s" s="114">
         <v>145</v>
       </c>
     </row>
@@ -1880,7 +2367,7 @@
       <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" t="s" s="33">
+      <c r="E20" t="s" s="115">
         <v>145</v>
       </c>
     </row>
@@ -1897,7 +2384,7 @@
       <c r="D21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" t="s" s="34">
+      <c r="E21" t="s" s="116">
         <v>145</v>
       </c>
     </row>
@@ -1914,7 +2401,7 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" t="s" s="35">
+      <c r="E22" t="s" s="117">
         <v>145</v>
       </c>
     </row>
@@ -1931,8 +2418,8 @@
       <c r="D23" t="s">
         <v>13</v>
       </c>
-      <c r="E23" t="s" s="36">
-        <v>145</v>
+      <c r="E23" t="s" s="118">
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1948,8 +2435,8 @@
       <c r="D24" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s" s="37">
-        <v>145</v>
+      <c r="E24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1965,8 +2452,8 @@
       <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="E25" t="s" s="38">
-        <v>145</v>
+      <c r="E25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1982,8 +2469,8 @@
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="E26" t="s" s="39">
-        <v>145</v>
+      <c r="E26" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1999,8 +2486,8 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s" s="40">
-        <v>145</v>
+      <c r="E27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -2016,8 +2503,8 @@
       <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E28" t="s" s="41">
-        <v>145</v>
+      <c r="E28" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -2033,8 +2520,8 @@
       <c r="D29" t="s">
         <v>13</v>
       </c>
-      <c r="E29" t="s" s="42">
-        <v>145</v>
+      <c r="E29" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -2050,8 +2537,8 @@
       <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s" s="43">
-        <v>145</v>
+      <c r="E30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -2067,8 +2554,8 @@
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" t="s" s="44">
-        <v>145</v>
+      <c r="E31" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -2082,10 +2569,10 @@
         <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" t="s" s="45">
-        <v>145</v>
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -2101,8 +2588,8 @@
       <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="E33" t="s" s="46">
-        <v>145</v>
+      <c r="E33" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -2118,8 +2605,8 @@
       <c r="D34" t="s">
         <v>13</v>
       </c>
-      <c r="E34" t="s" s="47">
-        <v>145</v>
+      <c r="E34" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -2135,8 +2622,8 @@
       <c r="D35" t="s">
         <v>13</v>
       </c>
-      <c r="E35" t="s" s="48">
-        <v>145</v>
+      <c r="E35" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -2152,8 +2639,8 @@
       <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" t="s" s="49">
-        <v>145</v>
+      <c r="E36" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -2167,10 +2654,10 @@
         <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" t="s" s="50">
-        <v>145</v>
+        <v>13</v>
+      </c>
+      <c r="E37" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
@@ -2186,8 +2673,8 @@
       <c r="D38" t="s">
         <v>13</v>
       </c>
-      <c r="E38" t="s" s="51">
-        <v>145</v>
+      <c r="E38" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
@@ -2203,8 +2690,8 @@
       <c r="D39" t="s">
         <v>13</v>
       </c>
-      <c r="E39" t="s" s="52">
-        <v>145</v>
+      <c r="E39" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -2217,8 +2704,8 @@
       <c r="D40" t="s">
         <v>13</v>
       </c>
-      <c r="E40" t="s" s="53">
-        <v>145</v>
+      <c r="E40" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -2231,8 +2718,8 @@
       <c r="D41" t="s">
         <v>13</v>
       </c>
-      <c r="E41" t="s" s="54">
-        <v>145</v>
+      <c r="E41" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -2246,10 +2733,10 @@
         <v>104</v>
       </c>
       <c r="D42" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" t="s" s="55">
-        <v>145</v>
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -2262,8 +2749,8 @@
       <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="E43" t="s" s="56">
-        <v>145</v>
+      <c r="E43" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -2279,8 +2766,8 @@
       <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="E44" t="s" s="57">
-        <v>145</v>
+      <c r="E44" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -2293,8 +2780,8 @@
       <c r="D45" t="s">
         <v>13</v>
       </c>
-      <c r="E45" t="s" s="58">
-        <v>145</v>
+      <c r="E45" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -2307,8 +2794,8 @@
       <c r="D46" t="s">
         <v>13</v>
       </c>
-      <c r="E46" t="s" s="59">
-        <v>145</v>
+      <c r="E46" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -2324,8 +2811,8 @@
       <c r="D47" t="s">
         <v>13</v>
       </c>
-      <c r="E47" t="s" s="60">
-        <v>145</v>
+      <c r="E47" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -2341,8 +2828,8 @@
       <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="E48" t="s" s="61">
-        <v>145</v>
+      <c r="E48" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -2358,8 +2845,8 @@
       <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="E49" t="s" s="62">
-        <v>145</v>
+      <c r="E49" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -2372,8 +2859,8 @@
       <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="E50" t="s" s="63">
-        <v>145</v>
+      <c r="E50" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -2389,8 +2876,8 @@
       <c r="D51" t="s">
         <v>13</v>
       </c>
-      <c r="E51" t="s" s="64">
-        <v>145</v>
+      <c r="E51" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -2403,8 +2890,8 @@
       <c r="D52" t="s">
         <v>13</v>
       </c>
-      <c r="E52" t="s" s="65">
-        <v>145</v>
+      <c r="E52" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -2417,8 +2904,8 @@
       <c r="D53" t="s">
         <v>13</v>
       </c>
-      <c r="E53" t="s" s="66">
-        <v>145</v>
+      <c r="E53" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2434,8 +2921,8 @@
       <c r="D54" t="s">
         <v>13</v>
       </c>
-      <c r="E54" t="s" s="67">
-        <v>145</v>
+      <c r="E54" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2448,8 +2935,8 @@
       <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="E55" t="s" s="68">
-        <v>145</v>
+      <c r="E55" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -2462,8 +2949,8 @@
       <c r="D56" t="s">
         <v>13</v>
       </c>
-      <c r="E56" t="s" s="69">
-        <v>145</v>
+      <c r="E56" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2476,8 +2963,8 @@
       <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="E57" t="s" s="70">
-        <v>145</v>
+      <c r="E57" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -2490,8 +2977,8 @@
       <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="E58" t="s" s="71">
-        <v>145</v>
+      <c r="E58" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2507,8 +2994,8 @@
       <c r="D59" t="s">
         <v>13</v>
       </c>
-      <c r="E59" t="s" s="72">
-        <v>145</v>
+      <c r="E59" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2522,8 +3009,8 @@
       <c r="D60" t="s">
         <v>13</v>
       </c>
-      <c r="E60" t="s" s="73">
-        <v>145</v>
+      <c r="E60" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2533,8 +3020,8 @@
       <c r="D61" t="s">
         <v>13</v>
       </c>
-      <c r="E61" t="s" s="74">
-        <v>73</v>
+      <c r="E61" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
